--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_200.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_200.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,684 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(16.24, 21.16)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(62.5, 72.76)]</t>
+          <t>[('0:00:04.740000', '0:00:08.620000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:13.600000', '0:00:17.780000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02)]</t>
+          <t>[('0:01:04.280000', '0:01:11')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:02.200000', '0:01:04.500000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_124</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3611111111111111</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58)]</t>
+          <t>[['F', 'Bb', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:00:57.480000', '0:01:08.700000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:15.124263', '0:00:21.811609')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(8.46, 13.46), (0.24, 5.08)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02), (13.98, 21.5)]</t>
+          <t>[('0:00:44.180000', '0:01:01.660000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:08.200000', '0:00:30.680000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:08.158789', '0:00:22.589990')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(34.94, 36.86)]</t>
+          <t>[('0:00:24.860000', '0:00:45.460000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4307692307692308</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(5.4, 13.72)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[('0:00:41.820000', '0:00:47.891000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:02.020000', '0:00:10.620000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_95</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1229096989966555</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'C:min', 'G:min']]</t>
+          <t>[['F:min', 'G:min/A#', 'C:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(26.16, 36.86)]</t>
+          <t>[['E:min', 'F#:min', 'B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(51.28, 62.78)]</t>
+          <t>[('0:00:05.280000', '0:00:08.700000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:39.979523', '0:00:47.885918')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:maj/G', 'G:7', 'C:min'], ['C:min', 'G:7/D', 'C:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(36.82, 38.82), (36.52, 38.28), (9.26, 13.9)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(12.7, 27.18), (56.44, 66.34), (0.36, 7.14)]</t>
+          <t>[('0:00:03', '0:00:05.280000'), ('0:00:00.700000', '0:00:03.780000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:19.420000', '0:01:26.020000'), ('0:00:27.360000', '0:00:34.920000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98), (35.88, 37.42), (9.1, 13.86)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (50.58, 59.48), (0.36, 5.0)]</t>
+          <t>[('0:01:10.840000', '0:01:35.200000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:06.100000', '0:01:30.100000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>isophonics_82</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1319148936170213</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(16.82, 23.18)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.465952, 5.272756)]</t>
+          <t>[('0:00:03.988594', '0:00:07.754783')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:02:04.920000', '0:02:08.840000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B', 'E', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min', 'D', 'G', 'G']]</t>
+          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(13.334625, 18.779705)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(30.378072, 38.911405)]</t>
+          <t>[('0:00:05.060000', '0:02:03.260000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>[('0:00:05', '0:01:54.060000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:00:36.640000', '0:01:18.160000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:40.100000', '0:01:24.580000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.09064112011790715</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F', 'G', 'C'], ['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A'], ['A', 'B', 'E']]</t>
+          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(4.394943, 8.342335), (17.014988, 20.892721)]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(99.341337, 107.027142), (7.935986, 12.498707)]</t>
+          <t>[('0:00:58.060000', '0:01:00.620000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
+          <t>[('0:00:22.360000', '0:00:25.240000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'E:7', 'A:maj', 'C#:7/G#', 'G:(3,5)', 'B:maj', 'G#:(3,5,b7,b9)', 'C#:min/F#', 'E:maj/F#', 'F#:7', 'B:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'F#:7', 'B:maj', 'D#:7/A#', 'A:(3,5)', 'C#:maj', 'A#:(3,5,b7,b9)', 'D#:min/G#', 'F#:maj/G#', 'G#:7', 'C#:maj', 'C#:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(7.36, 16.52)]</t>
+          <t>[('0:00:00.320000', '0:00:40.640000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D#:7', 'G#:maj/D#', 'D#:7', 'G#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(88.86, 97.74)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(108.54, 120.72)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:00.480000', '0:00:35.060000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
